--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Cd9-L1cam.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Cd9-L1cam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>62.8922167083129</v>
+        <v>63.482662</v>
       </c>
       <c r="H2">
-        <v>62.8922167083129</v>
+        <v>190.447986</v>
       </c>
       <c r="I2">
-        <v>0.2269864808940143</v>
+        <v>0.218508826829398</v>
       </c>
       <c r="J2">
-        <v>0.2269864808940143</v>
+        <v>0.218508826829398</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.03232220154138</v>
+        <v>7.331211666666666</v>
       </c>
       <c r="N2">
-        <v>7.03232220154138</v>
+        <v>21.993635</v>
       </c>
       <c r="O2">
-        <v>0.3242521352457568</v>
+        <v>0.3202318188366964</v>
       </c>
       <c r="P2">
-        <v>0.3242521352457568</v>
+        <v>0.3202318188366965</v>
       </c>
       <c r="Q2">
-        <v>442.2783318620205</v>
+        <v>465.4048322854566</v>
       </c>
       <c r="R2">
-        <v>442.2783318620205</v>
+        <v>4188.643490569109</v>
       </c>
       <c r="S2">
-        <v>0.07360085110180431</v>
+        <v>0.06997347904745085</v>
       </c>
       <c r="T2">
-        <v>0.07360085110180431</v>
+        <v>0.06997347904745087</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,55 +593,55 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>62.8922167083129</v>
+        <v>63.482662</v>
       </c>
       <c r="H3">
-        <v>62.8922167083129</v>
+        <v>190.447986</v>
       </c>
       <c r="I3">
-        <v>0.2269864808940143</v>
+        <v>0.218508826829398</v>
       </c>
       <c r="J3">
-        <v>0.2269864808940143</v>
+        <v>0.218508826829398</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>7.24559775085746</v>
+        <v>0.1628146666666667</v>
       </c>
       <c r="N3">
-        <v>7.24559775085746</v>
+        <v>0.488444</v>
       </c>
       <c r="O3">
-        <v>0.3340860208783424</v>
+        <v>0.007111844427711535</v>
       </c>
       <c r="P3">
-        <v>0.3340860208783424</v>
+        <v>0.007111844427711535</v>
       </c>
       <c r="Q3">
-        <v>455.6917039281919</v>
+        <v>10.33590845264267</v>
       </c>
       <c r="R3">
-        <v>455.6917039281919</v>
+        <v>93.02317607378399</v>
       </c>
       <c r="S3">
-        <v>0.07583301019505913</v>
+        <v>0.001554000782492439</v>
       </c>
       <c r="T3">
-        <v>0.07583301019505913</v>
+        <v>0.001554000782492439</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>62.8922167083129</v>
+        <v>63.482662</v>
       </c>
       <c r="H4">
-        <v>62.8922167083129</v>
+        <v>190.447986</v>
       </c>
       <c r="I4">
-        <v>0.2269864808940143</v>
+        <v>0.218508826829398</v>
       </c>
       <c r="J4">
-        <v>0.2269864808940143</v>
+        <v>0.218508826829398</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.07146335244669</v>
+        <v>7.402569</v>
       </c>
       <c r="N4">
-        <v>6.07146335244669</v>
+        <v>22.207707</v>
       </c>
       <c r="O4">
-        <v>0.2799480597839635</v>
+        <v>0.3233487508909935</v>
       </c>
       <c r="P4">
-        <v>0.2799480597839635</v>
+        <v>0.3233487508909935</v>
       </c>
       <c r="Q4">
-        <v>381.8477888986572</v>
+        <v>469.9347857586779</v>
       </c>
       <c r="R4">
-        <v>381.8477888986572</v>
+        <v>4229.413071828101</v>
       </c>
       <c r="S4">
-        <v>0.063544424923469</v>
+        <v>0.07065455621394226</v>
       </c>
       <c r="T4">
-        <v>0.063544424923469</v>
+        <v>0.07065455621394225</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>62.8922167083129</v>
+        <v>63.482662</v>
       </c>
       <c r="H5">
-        <v>62.8922167083129</v>
+        <v>190.447986</v>
       </c>
       <c r="I5">
-        <v>0.2269864808940143</v>
+        <v>0.218508826829398</v>
       </c>
       <c r="J5">
-        <v>0.2269864808940143</v>
+        <v>0.218508826829398</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.33843748995494</v>
+        <v>6.381863666666667</v>
       </c>
       <c r="N5">
-        <v>1.33843748995494</v>
+        <v>19.145591</v>
       </c>
       <c r="O5">
-        <v>0.0617137840919371</v>
+        <v>0.2787637163494569</v>
       </c>
       <c r="P5">
-        <v>0.0617137840919371</v>
+        <v>0.2787637163494568</v>
       </c>
       <c r="Q5">
-        <v>84.17730066877647</v>
+        <v>405.1376940810807</v>
       </c>
       <c r="R5">
-        <v>84.17730066877647</v>
+        <v>3646.239246729725</v>
       </c>
       <c r="S5">
-        <v>0.0140081946736818</v>
+        <v>0.06091233262212291</v>
       </c>
       <c r="T5">
-        <v>0.0140081946736818</v>
+        <v>0.06091233262212289</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>39.207041268756</v>
+        <v>63.482662</v>
       </c>
       <c r="H6">
-        <v>39.207041268756</v>
+        <v>190.447986</v>
       </c>
       <c r="I6">
-        <v>0.141503492636236</v>
+        <v>0.218508826829398</v>
       </c>
       <c r="J6">
-        <v>0.141503492636236</v>
+        <v>0.218508826829398</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.03232220154138</v>
+        <v>1.614992666666667</v>
       </c>
       <c r="N6">
-        <v>7.03232220154138</v>
+        <v>4.844977999999999</v>
       </c>
       <c r="O6">
-        <v>0.3242521352457568</v>
+        <v>0.07054386949514166</v>
       </c>
       <c r="P6">
-        <v>0.3242521352457568</v>
+        <v>0.07054386949514166</v>
       </c>
       <c r="Q6">
-        <v>275.7165467710219</v>
+        <v>102.5240335904787</v>
       </c>
       <c r="R6">
-        <v>275.7165467710219</v>
+        <v>922.7163023143078</v>
       </c>
       <c r="S6">
-        <v>0.04588280963203174</v>
+        <v>0.01541445816338956</v>
       </c>
       <c r="T6">
-        <v>0.04588280963203174</v>
+        <v>0.01541445816338956</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>39.207041268756</v>
+        <v>39.389034</v>
       </c>
       <c r="H7">
-        <v>39.207041268756</v>
+        <v>118.167102</v>
       </c>
       <c r="I7">
-        <v>0.141503492636236</v>
+        <v>0.13557798835347</v>
       </c>
       <c r="J7">
-        <v>0.141503492636236</v>
+        <v>0.13557798835347</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.24559775085746</v>
+        <v>7.331211666666666</v>
       </c>
       <c r="N7">
-        <v>7.24559775085746</v>
+        <v>21.993635</v>
       </c>
       <c r="O7">
-        <v>0.3340860208783424</v>
+        <v>0.3202318188366964</v>
       </c>
       <c r="P7">
-        <v>0.3340860208783424</v>
+        <v>0.3202318188366965</v>
       </c>
       <c r="Q7">
-        <v>284.0784500346741</v>
+        <v>288.76934559953</v>
       </c>
       <c r="R7">
-        <v>284.0784500346741</v>
+        <v>2598.92411039577</v>
       </c>
       <c r="S7">
-        <v>0.04727433879522791</v>
+        <v>0.04341638580465214</v>
       </c>
       <c r="T7">
-        <v>0.04727433879522791</v>
+        <v>0.04341638580465214</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>39.207041268756</v>
+        <v>39.389034</v>
       </c>
       <c r="H8">
-        <v>39.207041268756</v>
+        <v>118.167102</v>
       </c>
       <c r="I8">
-        <v>0.141503492636236</v>
+        <v>0.13557798835347</v>
       </c>
       <c r="J8">
-        <v>0.141503492636236</v>
+        <v>0.13557798835347</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>6.07146335244669</v>
+        <v>0.1628146666666667</v>
       </c>
       <c r="N8">
-        <v>6.07146335244669</v>
+        <v>0.488444</v>
       </c>
       <c r="O8">
-        <v>0.2799480597839635</v>
+        <v>0.007111844427711535</v>
       </c>
       <c r="P8">
-        <v>0.2799480597839635</v>
+        <v>0.007111844427711535</v>
       </c>
       <c r="Q8">
-        <v>238.044114221117</v>
+        <v>6.413112441032</v>
       </c>
       <c r="R8">
-        <v>238.044114221117</v>
+        <v>57.718011969288</v>
       </c>
       <c r="S8">
-        <v>0.03961362821616864</v>
+        <v>0.0009642095609919648</v>
       </c>
       <c r="T8">
-        <v>0.03961362821616864</v>
+        <v>0.0009642095609919646</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>39.207041268756</v>
+        <v>39.389034</v>
       </c>
       <c r="H9">
-        <v>39.207041268756</v>
+        <v>118.167102</v>
       </c>
       <c r="I9">
-        <v>0.141503492636236</v>
+        <v>0.13557798835347</v>
       </c>
       <c r="J9">
-        <v>0.141503492636236</v>
+        <v>0.13557798835347</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.33843748995494</v>
+        <v>7.402569</v>
       </c>
       <c r="N9">
-        <v>1.33843748995494</v>
+        <v>22.207707</v>
       </c>
       <c r="O9">
-        <v>0.0617137840919371</v>
+        <v>0.3233487508909935</v>
       </c>
       <c r="P9">
-        <v>0.0617137840919371</v>
+        <v>0.3233487508909935</v>
       </c>
       <c r="Q9">
-        <v>52.47617390431353</v>
+        <v>291.580042028346</v>
       </c>
       <c r="R9">
-        <v>52.47617390431353</v>
+        <v>2624.220378255114</v>
       </c>
       <c r="S9">
-        <v>0.008732715992807678</v>
+        <v>0.04383897318240819</v>
       </c>
       <c r="T9">
-        <v>0.008732715992807678</v>
+        <v>0.04383897318240818</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>106.122986421701</v>
+        <v>39.389034</v>
       </c>
       <c r="H10">
-        <v>106.122986421701</v>
+        <v>118.167102</v>
       </c>
       <c r="I10">
-        <v>0.383012151432742</v>
+        <v>0.13557798835347</v>
       </c>
       <c r="J10">
-        <v>0.383012151432742</v>
+        <v>0.13557798835347</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.03232220154138</v>
+        <v>6.381863666666667</v>
       </c>
       <c r="N10">
-        <v>7.03232220154138</v>
+        <v>19.145591</v>
       </c>
       <c r="O10">
-        <v>0.3242521352457568</v>
+        <v>0.2787637163494569</v>
       </c>
       <c r="P10">
-        <v>0.3242521352457568</v>
+        <v>0.2787637163494568</v>
       </c>
       <c r="Q10">
-        <v>746.2910335072023</v>
+        <v>251.375444949698</v>
       </c>
       <c r="R10">
-        <v>746.2910335072023</v>
+        <v>2262.379004547282</v>
       </c>
       <c r="S10">
-        <v>0.1241925079271377</v>
+        <v>0.03779422388859668</v>
       </c>
       <c r="T10">
-        <v>0.1241925079271377</v>
+        <v>0.03779422388859666</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>106.122986421701</v>
+        <v>39.389034</v>
       </c>
       <c r="H11">
-        <v>106.122986421701</v>
+        <v>118.167102</v>
       </c>
       <c r="I11">
-        <v>0.383012151432742</v>
+        <v>0.13557798835347</v>
       </c>
       <c r="J11">
-        <v>0.383012151432742</v>
+        <v>0.13557798835347</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.24559775085746</v>
+        <v>1.614992666666667</v>
       </c>
       <c r="N11">
-        <v>7.24559775085746</v>
+        <v>4.844977999999999</v>
       </c>
       <c r="O11">
-        <v>0.3340860208783424</v>
+        <v>0.07054386949514166</v>
       </c>
       <c r="P11">
-        <v>0.3340860208783424</v>
+        <v>0.07054386949514166</v>
       </c>
       <c r="Q11">
-        <v>768.9244717313535</v>
+        <v>63.613001057084</v>
       </c>
       <c r="R11">
-        <v>768.9244717313535</v>
+        <v>572.517009513756</v>
       </c>
       <c r="S11">
-        <v>0.1279590056202179</v>
+        <v>0.009564195916821023</v>
       </c>
       <c r="T11">
-        <v>0.1279590056202179</v>
+        <v>0.009564195916821021</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>106.122986421701</v>
+        <v>106.129354</v>
       </c>
       <c r="H12">
-        <v>106.122986421701</v>
+        <v>318.388062</v>
       </c>
       <c r="I12">
-        <v>0.383012151432742</v>
+        <v>0.3652997512092653</v>
       </c>
       <c r="J12">
-        <v>0.383012151432742</v>
+        <v>0.3652997512092652</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.07146335244669</v>
+        <v>7.331211666666666</v>
       </c>
       <c r="N12">
-        <v>6.07146335244669</v>
+        <v>21.993635</v>
       </c>
       <c r="O12">
-        <v>0.2799480597839635</v>
+        <v>0.3202318188366964</v>
       </c>
       <c r="P12">
-        <v>0.2799480597839635</v>
+        <v>0.3202318188366965</v>
       </c>
       <c r="Q12">
-        <v>644.3218229115553</v>
+        <v>778.0567582205965</v>
       </c>
       <c r="R12">
-        <v>644.3218229115553</v>
+        <v>7002.510823985369</v>
       </c>
       <c r="S12">
-        <v>0.1072235086672778</v>
+        <v>0.1169806037503357</v>
       </c>
       <c r="T12">
-        <v>0.1072235086672778</v>
+        <v>0.1169806037503357</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>106.122986421701</v>
+        <v>106.129354</v>
       </c>
       <c r="H13">
-        <v>106.122986421701</v>
+        <v>318.388062</v>
       </c>
       <c r="I13">
-        <v>0.383012151432742</v>
+        <v>0.3652997512092653</v>
       </c>
       <c r="J13">
-        <v>0.383012151432742</v>
+        <v>0.3652997512092652</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>1.33843748995494</v>
+        <v>0.1628146666666667</v>
       </c>
       <c r="N13">
-        <v>1.33843748995494</v>
+        <v>0.488444</v>
       </c>
       <c r="O13">
-        <v>0.0617137840919371</v>
+        <v>0.007111844427711535</v>
       </c>
       <c r="P13">
-        <v>0.0617137840919371</v>
+        <v>0.007111844427711535</v>
       </c>
       <c r="Q13">
-        <v>142.0389835727837</v>
+        <v>17.27941539505866</v>
       </c>
       <c r="R13">
-        <v>142.0389835727837</v>
+        <v>155.514738555528</v>
       </c>
       <c r="S13">
-        <v>0.02363712921810856</v>
+        <v>0.002597955000082023</v>
       </c>
       <c r="T13">
-        <v>0.02363712921810856</v>
+        <v>0.002597955000082023</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>51.7085193886251</v>
+        <v>106.129354</v>
       </c>
       <c r="H14">
-        <v>51.7085193886251</v>
+        <v>318.388062</v>
       </c>
       <c r="I14">
-        <v>0.186623010963335</v>
+        <v>0.3652997512092653</v>
       </c>
       <c r="J14">
-        <v>0.186623010963335</v>
+        <v>0.3652997512092652</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.03232220154138</v>
+        <v>7.402569</v>
       </c>
       <c r="N14">
-        <v>7.03232220154138</v>
+        <v>22.207707</v>
       </c>
       <c r="O14">
-        <v>0.3242521352457568</v>
+        <v>0.3233487508909935</v>
       </c>
       <c r="P14">
-        <v>0.3242521352457568</v>
+        <v>0.3233487508909935</v>
       </c>
       <c r="Q14">
-        <v>363.6309689054612</v>
+        <v>785.6298659104259</v>
       </c>
       <c r="R14">
-        <v>363.6309689054612</v>
+        <v>7070.668793193833</v>
       </c>
       <c r="S14">
-        <v>0.06051290979085364</v>
+        <v>0.1181192182543066</v>
       </c>
       <c r="T14">
-        <v>0.06051290979085364</v>
+        <v>0.1181192182543066</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>51.7085193886251</v>
+        <v>106.129354</v>
       </c>
       <c r="H15">
-        <v>51.7085193886251</v>
+        <v>318.388062</v>
       </c>
       <c r="I15">
-        <v>0.186623010963335</v>
+        <v>0.3652997512092653</v>
       </c>
       <c r="J15">
-        <v>0.186623010963335</v>
+        <v>0.3652997512092652</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.24559775085746</v>
+        <v>6.381863666666667</v>
       </c>
       <c r="N15">
-        <v>7.24559775085746</v>
+        <v>19.145591</v>
       </c>
       <c r="O15">
-        <v>0.3340860208783424</v>
+        <v>0.2787637163494569</v>
       </c>
       <c r="P15">
-        <v>0.3340860208783424</v>
+        <v>0.2787637163494568</v>
       </c>
       <c r="Q15">
-        <v>374.6591317823914</v>
+        <v>677.3030682594047</v>
       </c>
       <c r="R15">
-        <v>374.6591317823914</v>
+        <v>6095.727614334642</v>
       </c>
       <c r="S15">
-        <v>0.06234813913707585</v>
+        <v>0.1018323162286268</v>
       </c>
       <c r="T15">
-        <v>0.06234813913707585</v>
+        <v>0.1018323162286268</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>51.7085193886251</v>
+        <v>106.129354</v>
       </c>
       <c r="H16">
-        <v>51.7085193886251</v>
+        <v>318.388062</v>
       </c>
       <c r="I16">
-        <v>0.186623010963335</v>
+        <v>0.3652997512092653</v>
       </c>
       <c r="J16">
-        <v>0.186623010963335</v>
+        <v>0.3652997512092652</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.07146335244669</v>
+        <v>1.614992666666667</v>
       </c>
       <c r="N16">
-        <v>6.07146335244669</v>
+        <v>4.844977999999999</v>
       </c>
       <c r="O16">
-        <v>0.2799480597839635</v>
+        <v>0.07054386949514166</v>
       </c>
       <c r="P16">
-        <v>0.2799480597839635</v>
+        <v>0.07054386949514166</v>
       </c>
       <c r="Q16">
-        <v>313.9463804773164</v>
+        <v>171.3981284280706</v>
       </c>
       <c r="R16">
-        <v>313.9463804773164</v>
+        <v>1542.583155852636</v>
       </c>
       <c r="S16">
-        <v>0.05224474983022698</v>
+        <v>0.02576965797591413</v>
       </c>
       <c r="T16">
-        <v>0.05224474983022698</v>
+        <v>0.02576965797591412</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,60 +1461,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>51.7085193886251</v>
+        <v>63.081098</v>
       </c>
       <c r="H17">
-        <v>51.7085193886251</v>
+        <v>189.243294</v>
       </c>
       <c r="I17">
-        <v>0.186623010963335</v>
+        <v>0.2171266340263155</v>
       </c>
       <c r="J17">
-        <v>0.186623010963335</v>
+        <v>0.2171266340263155</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.33843748995494</v>
+        <v>7.331211666666666</v>
       </c>
       <c r="N17">
-        <v>1.33843748995494</v>
+        <v>21.993635</v>
       </c>
       <c r="O17">
-        <v>0.0617137840919371</v>
+        <v>0.3202318188366964</v>
       </c>
       <c r="P17">
-        <v>0.0617137840919371</v>
+        <v>0.3202318188366965</v>
       </c>
       <c r="Q17">
-        <v>69.20862089979772</v>
+        <v>462.4608816037432</v>
       </c>
       <c r="R17">
-        <v>69.20862089979772</v>
+        <v>4162.147934433689</v>
       </c>
       <c r="S17">
-        <v>0.01151721220517847</v>
+        <v>0.06953085693213674</v>
       </c>
       <c r="T17">
-        <v>0.01151721220517847</v>
+        <v>0.06953085693213676</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>17.1439609301483</v>
+        <v>63.081098</v>
       </c>
       <c r="H18">
-        <v>17.1439609301483</v>
+        <v>189.243294</v>
       </c>
       <c r="I18">
-        <v>0.0618748640736728</v>
+        <v>0.2171266340263155</v>
       </c>
       <c r="J18">
-        <v>0.0618748640736728</v>
+        <v>0.2171266340263155</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>7.03232220154138</v>
+        <v>0.1628146666666667</v>
       </c>
       <c r="N18">
-        <v>7.03232220154138</v>
+        <v>0.488444</v>
       </c>
       <c r="O18">
-        <v>0.3242521352457568</v>
+        <v>0.007111844427711535</v>
       </c>
       <c r="P18">
-        <v>0.3242521352457568</v>
+        <v>0.007111844427711535</v>
       </c>
       <c r="Q18">
-        <v>120.5618570714399</v>
+        <v>10.27052794383733</v>
       </c>
       <c r="R18">
-        <v>120.5618570714399</v>
+        <v>92.43475149453599</v>
       </c>
       <c r="S18">
-        <v>0.02006305679392937</v>
+        <v>0.001544170842307813</v>
       </c>
       <c r="T18">
-        <v>0.02006305679392937</v>
+        <v>0.001544170842307813</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1588,57 +1588,57 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>17.1439609301483</v>
+        <v>63.081098</v>
       </c>
       <c r="H19">
-        <v>17.1439609301483</v>
+        <v>189.243294</v>
       </c>
       <c r="I19">
-        <v>0.0618748640736728</v>
+        <v>0.2171266340263155</v>
       </c>
       <c r="J19">
-        <v>0.0618748640736728</v>
+        <v>0.2171266340263155</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>7.24559775085746</v>
+        <v>7.402569</v>
       </c>
       <c r="N19">
-        <v>7.24559775085746</v>
+        <v>22.207707</v>
       </c>
       <c r="O19">
-        <v>0.3340860208783424</v>
+        <v>0.3233487508909935</v>
       </c>
       <c r="P19">
-        <v>0.3340860208783424</v>
+        <v>0.3233487508909935</v>
       </c>
       <c r="Q19">
-        <v>124.2182447562707</v>
+        <v>466.9621805407619</v>
       </c>
       <c r="R19">
-        <v>124.2182447562707</v>
+        <v>4202.659624866857</v>
       </c>
       <c r="S19">
-        <v>0.02067152713076165</v>
+        <v>0.07020762589757501</v>
       </c>
       <c r="T19">
-        <v>0.02067152713076165</v>
+        <v>0.070207625897575</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1650,57 +1650,57 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>17.1439609301483</v>
+        <v>63.081098</v>
       </c>
       <c r="H20">
-        <v>17.1439609301483</v>
+        <v>189.243294</v>
       </c>
       <c r="I20">
-        <v>0.0618748640736728</v>
+        <v>0.2171266340263155</v>
       </c>
       <c r="J20">
-        <v>0.0618748640736728</v>
+        <v>0.2171266340263155</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.07146335244669</v>
+        <v>6.381863666666667</v>
       </c>
       <c r="N20">
-        <v>6.07146335244669</v>
+        <v>19.145591</v>
       </c>
       <c r="O20">
-        <v>0.2799480597839635</v>
+        <v>0.2787637163494569</v>
       </c>
       <c r="P20">
-        <v>0.2799480597839635</v>
+        <v>0.2787637163494568</v>
       </c>
       <c r="Q20">
-        <v>104.0889305031733</v>
+        <v>402.5749673796393</v>
       </c>
       <c r="R20">
-        <v>104.0889305031733</v>
+        <v>3623.174706416754</v>
       </c>
       <c r="S20">
-        <v>0.01732174814682117</v>
+        <v>0.06052702741962415</v>
       </c>
       <c r="T20">
-        <v>0.01732174814682117</v>
+        <v>0.06052702741962413</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,52 +1712,362 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>17.1439609301483</v>
+        <v>63.081098</v>
       </c>
       <c r="H21">
-        <v>17.1439609301483</v>
+        <v>189.243294</v>
       </c>
       <c r="I21">
-        <v>0.0618748640736728</v>
+        <v>0.2171266340263155</v>
       </c>
       <c r="J21">
-        <v>0.0618748640736728</v>
+        <v>0.2171266340263155</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.33843748995494</v>
+        <v>1.614992666666667</v>
       </c>
       <c r="N21">
-        <v>1.33843748995494</v>
+        <v>4.844977999999999</v>
       </c>
       <c r="O21">
-        <v>0.0617137840919371</v>
+        <v>0.07054386949514166</v>
       </c>
       <c r="P21">
-        <v>0.0617137840919371</v>
+        <v>0.07054386949514166</v>
       </c>
       <c r="Q21">
-        <v>22.94612003523325</v>
+        <v>101.8755106752813</v>
       </c>
       <c r="R21">
-        <v>22.94612003523325</v>
+        <v>916.8795960775318</v>
       </c>
       <c r="S21">
-        <v>0.003818532002160598</v>
+        <v>0.01531695293467178</v>
       </c>
       <c r="T21">
-        <v>0.003818532002160598</v>
+        <v>0.01531695293467178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>18.44461433333333</v>
+      </c>
+      <c r="H22">
+        <v>55.333843</v>
+      </c>
+      <c r="I22">
+        <v>0.06348679958155136</v>
+      </c>
+      <c r="J22">
+        <v>0.06348679958155135</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>7.331211666666666</v>
+      </c>
+      <c r="N22">
+        <v>21.993635</v>
+      </c>
+      <c r="O22">
+        <v>0.3202318188366964</v>
+      </c>
+      <c r="P22">
+        <v>0.3202318188366965</v>
+      </c>
+      <c r="Q22">
+        <v>135.2213717877005</v>
+      </c>
+      <c r="R22">
+        <v>1216.992346089305</v>
+      </c>
+      <c r="S22">
+        <v>0.02033049330212101</v>
+      </c>
+      <c r="T22">
+        <v>0.02033049330212101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>18.44461433333333</v>
+      </c>
+      <c r="H23">
+        <v>55.333843</v>
+      </c>
+      <c r="I23">
+        <v>0.06348679958155136</v>
+      </c>
+      <c r="J23">
+        <v>0.06348679958155135</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.1628146666666667</v>
+      </c>
+      <c r="N23">
+        <v>0.488444</v>
+      </c>
+      <c r="O23">
+        <v>0.007111844427711535</v>
+      </c>
+      <c r="P23">
+        <v>0.007111844427711535</v>
+      </c>
+      <c r="Q23">
+        <v>3.003053734476889</v>
+      </c>
+      <c r="R23">
+        <v>27.027483610292</v>
+      </c>
+      <c r="S23">
+        <v>0.000451508241837295</v>
+      </c>
+      <c r="T23">
+        <v>0.0004515082418372949</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>18.44461433333333</v>
+      </c>
+      <c r="H24">
+        <v>55.333843</v>
+      </c>
+      <c r="I24">
+        <v>0.06348679958155136</v>
+      </c>
+      <c r="J24">
+        <v>0.06348679958155135</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>7.402569</v>
+      </c>
+      <c r="N24">
+        <v>22.207707</v>
+      </c>
+      <c r="O24">
+        <v>0.3233487508909935</v>
+      </c>
+      <c r="P24">
+        <v>0.3233487508909935</v>
+      </c>
+      <c r="Q24">
+        <v>136.537530280889</v>
+      </c>
+      <c r="R24">
+        <v>1228.837772528001</v>
+      </c>
+      <c r="S24">
+        <v>0.02052837734276148</v>
+      </c>
+      <c r="T24">
+        <v>0.02052837734276148</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>18.44461433333333</v>
+      </c>
+      <c r="H25">
+        <v>55.333843</v>
+      </c>
+      <c r="I25">
+        <v>0.06348679958155136</v>
+      </c>
+      <c r="J25">
+        <v>0.06348679958155135</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>6.381863666666667</v>
+      </c>
+      <c r="N25">
+        <v>19.145591</v>
+      </c>
+      <c r="O25">
+        <v>0.2787637163494569</v>
+      </c>
+      <c r="P25">
+        <v>0.2787637163494568</v>
+      </c>
+      <c r="Q25">
+        <v>117.7110140595792</v>
+      </c>
+      <c r="R25">
+        <v>1059.399126536213</v>
+      </c>
+      <c r="S25">
+        <v>0.0176978161904864</v>
+      </c>
+      <c r="T25">
+        <v>0.0176978161904864</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>18.44461433333333</v>
+      </c>
+      <c r="H26">
+        <v>55.333843</v>
+      </c>
+      <c r="I26">
+        <v>0.06348679958155136</v>
+      </c>
+      <c r="J26">
+        <v>0.06348679958155135</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.614992666666667</v>
+      </c>
+      <c r="N26">
+        <v>4.844977999999999</v>
+      </c>
+      <c r="O26">
+        <v>0.07054386949514166</v>
+      </c>
+      <c r="P26">
+        <v>0.07054386949514166</v>
+      </c>
+      <c r="Q26">
+        <v>29.78791688782822</v>
+      </c>
+      <c r="R26">
+        <v>268.091251990454</v>
+      </c>
+      <c r="S26">
+        <v>0.004478604504345173</v>
+      </c>
+      <c r="T26">
+        <v>0.004478604504345172</v>
       </c>
     </row>
   </sheetData>
